--- a/src/main/resources/com/jxls/writer/demo/formulas_demo.xlsx
+++ b/src/main/resources/com/jxls/writer/demo/formulas_demo.xlsx
@@ -380,11 +380,11 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <f>A1+Sheet2!A1 + A2</f>
+        <f>A1+ SUM(Sheet2!A1) + A2</f>
         <v>13</v>
       </c>
       <c r="B4">
-        <f>'Sheet 3'!A1 + Sheet2!A1 + B1</f>
+        <f>'Sheet 3'!A1 + SUM(Sheet2!A1) + B1</f>
         <v>113</v>
       </c>
       <c r="C4" t="s">
